--- a/AutomationArc/ARCDataTemplete/ArcTest.xlsx
+++ b/AutomationArc/ARCDataTemplete/ArcTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Automation\Automation\ARCDataTemplete\"/>
     </mc:Choice>
@@ -36,7 +36,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1005">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3075,6 +3075,21 @@
   <si>
     <t>$ 120838.46</t>
   </si>
+  <si>
+    <t>INDBuildingNone 11:50:28</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 12:00:04</t>
+  </si>
+  <si>
+    <t>9000159978</t>
+  </si>
+  <si>
+    <t>Apr 27, 2019</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 12:07:41</t>
+  </si>
 </sst>
 </file>
 
@@ -3083,7 +3098,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3940,16 +3955,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="101" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="101"/>
-    <col min="7" max="7" width="19" style="101" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="101" customWidth="1"/>
-    <col min="11" max="11" width="23" style="101" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="101" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="101" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="101" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="101" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" style="101" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="101" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="101" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="101" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="101" width="25.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="101" width="19.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4782,19 +4797,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="101" customWidth="1" collapsed="1"/>
-    <col min="3" max="46" width="9.140625" style="101"/>
-    <col min="47" max="47" width="15.85546875" style="101" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="17.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="12.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" style="101" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" style="101" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="13.140625" style="101" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="11.42578125" style="101" customWidth="1"/>
-    <col min="54" max="63" width="9.140625" style="101"/>
-    <col min="64" max="64" width="16.28515625" style="101" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" style="101"/>
+    <col min="1" max="1" customWidth="true" style="101" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="101" width="18.7109375" collapsed="true"/>
+    <col min="3" max="46" style="101" width="9.140625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="101" width="15.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="101" width="17.5703125" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="101" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="101" width="13.42578125" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="101" width="13.140625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" style="101" width="11.42578125" collapsed="true"/>
+    <col min="54" max="63" style="101" width="9.140625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="101" width="16.28515625" collapsed="true"/>
+    <col min="65" max="65" style="101" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -5913,43 +5928,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="40.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="106" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="106" collapsed="1"/>
-    <col min="17" max="17" width="20" style="106" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.7109375" style="106" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="106" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="106" collapsed="1"/>
-    <col min="24" max="24" width="11.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7" style="106" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="106" collapsed="1"/>
-    <col min="27" max="27" width="14.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="70" width="9.140625" style="106" collapsed="1"/>
-    <col min="71" max="71" width="9.140625" style="106"/>
-    <col min="72" max="16384" width="9.140625" style="106" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="106" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="106" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="106" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="106" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="106" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="106" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="106" width="30.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="106" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="106" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="106" width="40.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="106" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="106" width="12.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="106" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="106" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" style="106" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="106" width="20.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="106" width="9.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="106" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="106" width="7.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="106" width="10.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="106" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" style="106" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="106" width="11.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="106" width="7.0" collapsed="true"/>
+    <col min="26" max="26" style="106" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="106" width="14.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="106" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="106" width="11.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="106" width="11.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="106" width="14.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="106" width="17.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="106" width="22.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="106" width="15.42578125" collapsed="true"/>
+    <col min="35" max="70" style="106" width="9.140625" collapsed="true"/>
+    <col min="71" max="71" style="106" width="9.140625" collapsed="true"/>
+    <col min="72" max="16384" style="106" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
@@ -7659,23 +7674,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7997,25 +8012,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="56" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="56" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="56" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="56" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="56" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="56" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="56" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="56" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="56" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="56" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="56" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="56" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="56" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="56" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="56" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="56" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="56" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="56" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="56" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="56" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="56" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="56" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="56" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="56" width="36.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="56" width="12.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="56" width="12.7109375" collapsed="true"/>
+    <col min="22" max="16384" style="56" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
@@ -8331,16 +8346,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" style="38" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="9.140625" style="38" collapsed="1"/>
-    <col min="11" max="11" width="13.85546875" style="38" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="38" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="38" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="38" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="38" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="21.0" collapsed="true"/>
+    <col min="6" max="10" style="38" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="38" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="38" width="19.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="38" width="9.140625" collapsed="true"/>
+    <col min="14" max="16384" style="38" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -8618,24 +8633,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" style="35" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21" style="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="35" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="35" collapsed="1"/>
-    <col min="10" max="10" width="31.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="35" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="35" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.5703125" style="35" customWidth="1" collapsed="1"/>
-    <col min="16" max="28" width="9.140625" style="35" collapsed="1"/>
-    <col min="29" max="29" width="12.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="35" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="35" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="35" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="35" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="35" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="35" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="35" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="35" width="21.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="35" width="18.0" collapsed="true"/>
+    <col min="9" max="9" style="35" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="35" width="31.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="35" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="35" width="10.85546875" collapsed="true"/>
+    <col min="13" max="13" style="35" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="35" width="12.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="35" width="15.5703125" collapsed="true"/>
+    <col min="16" max="28" style="35" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="35" width="12.7109375" collapsed="true"/>
+    <col min="30" max="16384" style="35" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -9402,25 +9417,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="18" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="18" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="18" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="18" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="18" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="18" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="18" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="18" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="18" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="18" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="18" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="18" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="18" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="18" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="18" width="36.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="18" width="14.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="18" width="16.42578125" collapsed="true"/>
+    <col min="22" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
@@ -9735,13 +9750,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -10063,32 +10078,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="47" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="47" collapsed="1"/>
-    <col min="10" max="10" width="23" style="47" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="9.140625" style="47" collapsed="1"/>
-    <col min="13" max="13" width="12.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="47" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="17" max="23" width="9.140625" style="47" collapsed="1"/>
-    <col min="24" max="24" width="16.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="9.140625" style="47" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="35.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16" style="47" customWidth="1" collapsed="1"/>
-    <col min="31" max="39" width="9.140625" style="47" collapsed="1"/>
-    <col min="40" max="40" width="12.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" style="47" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="47" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="47" width="26.82421875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="47" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="47" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="47" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="47" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="47" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" style="47" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="47" width="23.0" collapsed="true"/>
+    <col min="11" max="12" style="47" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="47" width="12.7109375" collapsed="true"/>
+    <col min="14" max="14" style="47" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="13.09375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="47" width="15.140625" collapsed="true"/>
+    <col min="17" max="23" style="47" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="47" width="16.7109375" collapsed="true"/>
+    <col min="25" max="27" style="47" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="47" width="35.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="47" width="16.0" collapsed="true"/>
+    <col min="31" max="39" style="47" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="47" width="12.140625" collapsed="true"/>
+    <col min="41" max="41" style="47" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="47" width="12.28515625" collapsed="true"/>
+    <col min="43" max="16384" style="47" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
@@ -10579,7 +10594,7 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>194</v>
@@ -10621,7 +10636,7 @@
         <v>966</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>967</v>
+        <v>1002</v>
       </c>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
@@ -10662,7 +10677,7 @@
         <v>971</v>
       </c>
       <c r="AP6" s="107" t="s">
-        <v>972</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
@@ -10768,18 +10783,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="52" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" style="52" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.7109375" style="52" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="52" collapsed="1"/>
-    <col min="10" max="10" width="23.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="9.140625" style="52" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="2" style="52" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="52" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" style="52" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="52" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="52" width="20.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="52" width="16.5703125" collapsed="true"/>
+    <col min="8" max="9" style="52" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="52" width="23.5703125" collapsed="true"/>
+    <col min="11" max="14" style="52" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="52" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="52" width="13.140625" collapsed="true"/>
+    <col min="17" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -11140,54 +11155,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" customWidth="1"/>
-    <col min="38" max="38" width="20" customWidth="1"/>
-    <col min="41" max="41" width="18.85546875" customWidth="1"/>
-    <col min="42" max="42" width="18.140625" customWidth="1"/>
-    <col min="43" max="43" width="18" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" customWidth="1"/>
-    <col min="46" max="46" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="31" customWidth="1"/>
-    <col min="50" max="50" width="20.5703125" customWidth="1"/>
-    <col min="51" max="51" width="21.28515625" customWidth="1"/>
-    <col min="52" max="52" width="31.5703125" customWidth="1"/>
-    <col min="53" max="53" width="26.7109375" customWidth="1"/>
-    <col min="54" max="54" width="21.7109375" customWidth="1"/>
-    <col min="55" max="55" width="13.140625" customWidth="1"/>
-    <col min="56" max="56" width="13.140625" style="107" customWidth="1"/>
-    <col min="57" max="57" width="15.7109375" customWidth="1"/>
-    <col min="58" max="58" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="14" customWidth="1"/>
-    <col min="60" max="60" width="32.85546875" customWidth="1"/>
-    <col min="61" max="61" width="14.28515625" customWidth="1"/>
-    <col min="62" max="62" width="17.7109375" customWidth="1"/>
-    <col min="63" max="63" width="19.140625" customWidth="1"/>
-    <col min="64" max="64" width="28.42578125" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" customWidth="1"/>
-    <col min="66" max="66" width="17.85546875" customWidth="1"/>
-    <col min="67" max="67" width="17" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" style="107" width="13.140625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
@@ -12799,26 +12814,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="53" collapsed="1"/>
-    <col min="5" max="5" width="20" style="53" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="53" collapsed="1"/>
-    <col min="10" max="10" width="27.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="9.140625" style="53" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="9.140625" style="101" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" style="53" collapsed="1"/>
-    <col min="22" max="22" width="12.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="9.140625" style="53" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="53" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" style="53" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="53" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="53" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="53" width="18.42578125" collapsed="true"/>
+    <col min="8" max="9" style="53" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="53" width="27.42578125" collapsed="true"/>
+    <col min="11" max="14" style="53" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="53" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="53" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="53" width="11.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="53" width="19.140625" collapsed="true"/>
+    <col min="19" max="20" style="101" width="9.140625" collapsed="true"/>
+    <col min="21" max="21" style="53" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="53" width="12.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="53" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="25" max="16384" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -13152,7 +13167,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -13212,57 +13227,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="28" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="60.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="28" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="28" collapsed="1"/>
-    <col min="17" max="17" width="17.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" style="28" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12" style="28" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="28" collapsed="1"/>
-    <col min="27" max="27" width="18.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.42578125" style="80" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.42578125" style="80" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="25.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.140625" style="28" collapsed="1"/>
-    <col min="39" max="39" width="27.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="16.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.5703125" style="28" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="18.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="32.5703125" style="28" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16" style="28" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="22.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="37" style="28" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="16.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="53" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="28" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="28" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="28" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="28" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="28" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="28" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="28" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="28" width="60.42578125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="28" width="16.7109375" collapsed="true"/>
+    <col min="14" max="14" style="28" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="28" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" style="28" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="28" width="17.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="28" width="15.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="28" width="16.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="28" width="19.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="28" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="28" width="12.0" collapsed="true"/>
+    <col min="25" max="26" style="28" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="80" width="18.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="80" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="80" width="25.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="80" width="18.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="80" width="19.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="80" width="22.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="80" width="23.85546875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="80" width="22.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="28" width="25.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="28" width="21.85546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="28" width="23.28515625" collapsed="true"/>
+    <col min="38" max="38" style="28" width="9.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="28" width="27.42578125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="28" width="16.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="28" width="14.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="28" width="19.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="28" width="19.140625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="28" width="18.42578125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="28" width="32.5703125" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="28" width="11.85546875" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="28" width="22.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="28" width="37.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="28" width="15.85546875" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="28" width="16.42578125" collapsed="true"/>
+    <col min="53" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -14183,47 +14198,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="31.140625" style="81" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="33.85546875" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" customWidth="1"/>
-    <col min="40" max="40" width="38" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="81" width="31.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="28" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="28" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -14961,24 +14976,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="33.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="2" collapsed="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31.7109375" style="81" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" style="81" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="23.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="30.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="33.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" style="2" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="81" width="31.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="81" width="16.42578125" collapsed="true"/>
+    <col min="21" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -15559,10 +15574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15651,36 +15666,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
-    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="36.7109375" style="80" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="1" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="80" width="36.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -16466,29 +16481,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="11" max="29" width="9.140625" style="53" collapsed="1"/>
-    <col min="30" max="30" width="16.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="24.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26" style="53" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="9.140625" style="53" collapsed="1"/>
-    <col min="38" max="38" width="13.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="39" max="41" width="9.140625" style="53" collapsed="1"/>
-    <col min="42" max="42" width="15.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="44" max="16384" width="9.140625" style="53" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="53" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="53" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="53" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="53" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="53" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="53" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="53" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="11" max="29" style="53" width="9.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="53" width="16.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="53" width="17.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="53" width="20.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="53" width="24.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="53" width="26.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="53" width="18.7109375" collapsed="true"/>
+    <col min="36" max="37" style="53" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="53" width="13.28515625" collapsed="true"/>
+    <col min="39" max="41" style="53" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="53" width="15.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="44" max="16384" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ArcTest.xlsx
+++ b/AutomationArc/ARCDataTemplete/ArcTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Automation\Automation\ARCDataTemplete\"/>
     </mc:Choice>
@@ -36,7 +36,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1045">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3075,6 +3075,141 @@
   <si>
     <t>$ 120838.46</t>
   </si>
+  <si>
+    <t>INDBuildingLEED for transit 15:27:18</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 15:38:57</t>
+  </si>
+  <si>
+    <t>9000116381</t>
+  </si>
+  <si>
+    <t>Apr 26, 2019</t>
+  </si>
+  <si>
+    <t>Transit: Station/Open Air Ground Level</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED for transit 15:45:03</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED for transit 15:49:45</t>
+  </si>
+  <si>
+    <t>Warehouse: Nonrefrigerated Distribution/Shipping</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Private</t>
+  </si>
+  <si>
+    <t>Core Learning Space: Other classroom education</t>
+  </si>
+  <si>
+    <t>Educational: K-12 School, Private</t>
+  </si>
+  <si>
+    <t>1000145665</t>
+  </si>
+  <si>
+    <t>Circulation Space</t>
+  </si>
+  <si>
+    <t>Educational: Early Childhood Education/Daycare</t>
+  </si>
+  <si>
+    <t>112 ALC Seat-Based</t>
+  </si>
+  <si>
+    <t>Buildings - School</t>
+  </si>
+  <si>
+    <t>11 PEAVEY RD</t>
+  </si>
+  <si>
+    <t>CHASKA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>55318</t>
+  </si>
+  <si>
+    <t>INDCityLEED v4.1 16:22:21</t>
+  </si>
+  <si>
+    <t>INDCityLEED v4.1 16:22:56</t>
+  </si>
+  <si>
+    <t>INDCityNone 16:42:11</t>
+  </si>
+  <si>
+    <t>9000116389</t>
+  </si>
+  <si>
+    <t>1000145674</t>
+  </si>
+  <si>
+    <t>INDCommOther 16:46:18</t>
+  </si>
+  <si>
+    <t>9000116390</t>
+  </si>
+  <si>
+    <t>1000145675</t>
+  </si>
+  <si>
+    <t>INDCommNone 16:50:09</t>
+  </si>
+  <si>
+    <t>9000116392</t>
+  </si>
+  <si>
+    <t>1000145677</t>
+  </si>
+  <si>
+    <t>INDCommOther 16:51:19</t>
+  </si>
+  <si>
+    <t>9000116393</t>
+  </si>
+  <si>
+    <t>1000145678</t>
+  </si>
+  <si>
+    <t>INDCommLEED v4.1 16:53:41</t>
+  </si>
+  <si>
+    <t>INDCommNone 16:54:57</t>
+  </si>
+  <si>
+    <t>9000116395</t>
+  </si>
+  <si>
+    <t>1000145682</t>
+  </si>
+  <si>
+    <t>INDCommLEED v4.1 16:58:38</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED v4.1 17:03:49</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED v4.1 17:08:00</t>
+  </si>
+  <si>
+    <t>INDParkingParksmart 17:12:43</t>
+  </si>
+  <si>
+    <t>INDParkingParksmart 17:16:59</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED for transit 17:18:45</t>
+  </si>
+  <si>
+    <t>INDBuildingLEED for transit 17:22:56</t>
+  </si>
 </sst>
 </file>
 
@@ -3083,7 +3218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3940,16 +4075,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="101" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="101"/>
-    <col min="7" max="7" width="19" style="101" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="101" customWidth="1"/>
-    <col min="11" max="11" width="23" style="101" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="101" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="101" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="101" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="101" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" style="101" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="101" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="101" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="101" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="101" width="25.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="101" width="19.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4782,19 +4917,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="101" customWidth="1" collapsed="1"/>
-    <col min="3" max="46" width="9.140625" style="101"/>
-    <col min="47" max="47" width="15.85546875" style="101" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="17.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="12.5703125" style="101" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" style="101" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" style="101" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="13.140625" style="101" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="11.42578125" style="101" customWidth="1"/>
-    <col min="54" max="63" width="9.140625" style="101"/>
-    <col min="64" max="64" width="16.28515625" style="101" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" style="101"/>
+    <col min="1" max="1" customWidth="true" style="101" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="101" width="18.7109375" collapsed="true"/>
+    <col min="3" max="46" style="101" width="9.140625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="101" width="15.85546875" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="101" width="17.5703125" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="101" width="14.7109375" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="101" width="13.42578125" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="101" width="13.140625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" style="101" width="11.42578125" collapsed="true"/>
+    <col min="54" max="63" style="101" width="9.140625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="101" width="16.28515625" collapsed="true"/>
+    <col min="65" max="65" style="101" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -5913,43 +6048,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="40.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="106" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.85546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="106" collapsed="1"/>
-    <col min="17" max="17" width="20" style="106" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.7109375" style="106" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="106" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="106" collapsed="1"/>
-    <col min="24" max="24" width="11.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7" style="106" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="106" collapsed="1"/>
-    <col min="27" max="27" width="14.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.42578125" style="106" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="70" width="9.140625" style="106" collapsed="1"/>
-    <col min="71" max="71" width="9.140625" style="106"/>
-    <col min="72" max="16384" width="9.140625" style="106" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="106" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="106" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="106" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="106" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="106" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="106" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="106" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="106" width="30.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="106" width="19.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="106" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="106" width="40.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="106" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="106" width="12.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="106" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="106" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" style="106" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="106" width="20.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="106" width="9.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="106" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="106" width="7.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="106" width="10.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="106" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" style="106" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="106" width="11.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="106" width="7.0" collapsed="true"/>
+    <col min="26" max="26" style="106" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="106" width="14.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="106" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="106" width="11.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="106" width="11.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="106" width="14.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="106" width="17.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="106" width="22.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="106" width="15.42578125" collapsed="true"/>
+    <col min="35" max="70" style="106" width="9.140625" collapsed="true"/>
+    <col min="71" max="71" style="106" width="9.140625" collapsed="true"/>
+    <col min="72" max="16384" style="106" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
@@ -7659,23 +7794,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7997,25 +8132,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="56" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="56" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="56" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="56" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="56" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="56" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="56" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="56" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36.5703125" style="56" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="56" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="56" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="56" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="56" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="56" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="56" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="56" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="56" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="56" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="56" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="56" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="56" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="56" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="56" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="56" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="56" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="56" width="36.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="56" width="12.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="56" width="12.7109375" collapsed="true"/>
+    <col min="22" max="16384" style="56" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
@@ -8331,16 +8466,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" style="38" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" style="38" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="9.140625" style="38" collapsed="1"/>
-    <col min="11" max="11" width="13.85546875" style="38" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.28515625" style="38" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="38" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="38" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="38" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="38" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="38" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="21.0" collapsed="true"/>
+    <col min="6" max="10" style="38" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="38" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="38" width="19.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="38" width="9.140625" collapsed="true"/>
+    <col min="14" max="16384" style="38" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -8618,24 +8753,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" style="35" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" style="35" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21" style="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="35" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="35" collapsed="1"/>
-    <col min="10" max="10" width="31.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="35" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="35" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" style="35" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.5703125" style="35" customWidth="1" collapsed="1"/>
-    <col min="16" max="28" width="9.140625" style="35" collapsed="1"/>
-    <col min="29" max="29" width="12.7109375" style="35" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="35" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="35" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="35" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="35" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="35" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="35" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="35" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="35" width="21.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="35" width="18.0" collapsed="true"/>
+    <col min="9" max="9" style="35" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="35" width="31.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="35" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="35" width="10.85546875" collapsed="true"/>
+    <col min="13" max="13" style="35" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="35" width="12.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="35" width="15.5703125" collapsed="true"/>
+    <col min="16" max="28" style="35" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="35" width="12.7109375" collapsed="true"/>
+    <col min="30" max="16384" style="35" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -9402,25 +9537,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="18" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="18" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="18" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="18" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="18" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="18" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="18" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="18" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="18" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="18" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="18" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="18" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="18" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="18" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="18" width="36.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="18" width="14.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="18" width="16.42578125" collapsed="true"/>
+    <col min="22" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
@@ -9735,13 +9870,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -10063,32 +10198,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="47" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="47" collapsed="1"/>
-    <col min="10" max="10" width="23" style="47" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="9.140625" style="47" collapsed="1"/>
-    <col min="13" max="13" width="12.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="47" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="17" max="23" width="9.140625" style="47" collapsed="1"/>
-    <col min="24" max="24" width="16.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="9.140625" style="47" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="35.140625" style="47" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16" style="47" customWidth="1" collapsed="1"/>
-    <col min="31" max="39" width="9.140625" style="47" collapsed="1"/>
-    <col min="40" max="40" width="12.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" style="47" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="47" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="47" width="36.6484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="47" width="12.8828125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="47" width="50.68359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="40.60546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="47" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="47" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="47" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" style="47" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="47" width="59.51171875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="47" width="9.4453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="47" width="9.01171875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="47" width="9.05859375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="47" width="8.2265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="13.19921875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="47" width="15.140625" collapsed="true"/>
+    <col min="17" max="23" style="47" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="47" width="16.7109375" collapsed="true"/>
+    <col min="25" max="27" style="47" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="47" width="35.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="47" width="16.0" collapsed="true"/>
+    <col min="31" max="39" style="47" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="47" width="12.140625" collapsed="true"/>
+    <col min="41" max="41" style="47" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="47" width="12.28515625" collapsed="true"/>
+    <col min="43" max="16384" style="47" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
@@ -10219,7 +10355,7 @@
     </row>
     <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>953</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>194</v>
@@ -10307,7 +10443,7 @@
     </row>
     <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>953</v>
+        <v>1006</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>194</v>
@@ -10316,10 +10452,10 @@
         <v>219</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>220</v>
+        <v>1007</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>221</v>
+        <v>1008</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>198</v>
@@ -10409,7 +10545,7 @@
     </row>
     <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>953</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>194</v>
@@ -10579,7 +10715,7 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>964</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>194</v>
@@ -10588,10 +10724,10 @@
         <v>273</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>262</v>
+        <v>1012</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>247</v>
+        <v>1013</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>198</v>
@@ -10621,7 +10757,7 @@
         <v>966</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
@@ -10662,12 +10798,12 @@
         <v>971</v>
       </c>
       <c r="AP6" s="107" t="s">
-        <v>972</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
-        <v>953</v>
+        <v>1044</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>194</v>
@@ -10751,6 +10887,29 @@
         <v>231</v>
       </c>
       <c r="AI7" s="107"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L11" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10768,18 +10927,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="52" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" style="52" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.7109375" style="52" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="52" collapsed="1"/>
-    <col min="10" max="10" width="23.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="9.140625" style="52" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="26.90234375" collapsed="true"/>
+    <col min="2" max="2" style="52" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="52" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" style="52" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="52" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="52" width="20.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="52" width="16.5703125" collapsed="true"/>
+    <col min="8" max="9" style="52" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="52" width="23.5703125" collapsed="true"/>
+    <col min="11" max="14" style="52" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="52" width="13.19921875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="52" width="13.140625" collapsed="true"/>
+    <col min="17" max="25" style="52" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="52" width="8.63671875" collapsed="true"/>
+    <col min="27" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -10874,7 +11036,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>975</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>304</v>
@@ -11036,7 +11198,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>975</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>304</v>
@@ -11077,8 +11239,8 @@
       <c r="N4" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="O4" s="25">
-        <v>1000073599</v>
+      <c r="O4" s="25" t="s">
+        <v>1024</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>62</v>
@@ -11102,7 +11264,9 @@
       <c r="Y4" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="Z4" s="107"/>
+      <c r="Z4" s="107" t="s">
+        <v>1003</v>
+      </c>
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
       <c r="AC4" s="25"/>
@@ -11140,54 +11304,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" customWidth="1"/>
-    <col min="38" max="38" width="20" customWidth="1"/>
-    <col min="41" max="41" width="18.85546875" customWidth="1"/>
-    <col min="42" max="42" width="18.140625" customWidth="1"/>
-    <col min="43" max="43" width="18" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" customWidth="1"/>
-    <col min="46" max="46" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="31" customWidth="1"/>
-    <col min="50" max="50" width="20.5703125" customWidth="1"/>
-    <col min="51" max="51" width="21.28515625" customWidth="1"/>
-    <col min="52" max="52" width="31.5703125" customWidth="1"/>
-    <col min="53" max="53" width="26.7109375" customWidth="1"/>
-    <col min="54" max="54" width="21.7109375" customWidth="1"/>
-    <col min="55" max="55" width="13.140625" customWidth="1"/>
-    <col min="56" max="56" width="13.140625" style="107" customWidth="1"/>
-    <col min="57" max="57" width="15.7109375" customWidth="1"/>
-    <col min="58" max="58" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="14" customWidth="1"/>
-    <col min="60" max="60" width="32.85546875" customWidth="1"/>
-    <col min="61" max="61" width="14.28515625" customWidth="1"/>
-    <col min="62" max="62" width="17.7109375" customWidth="1"/>
-    <col min="63" max="63" width="19.140625" customWidth="1"/>
-    <col min="64" max="64" width="28.42578125" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" customWidth="1"/>
-    <col min="66" max="66" width="17.85546875" customWidth="1"/>
-    <col min="67" max="67" width="17" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" style="107" width="13.140625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
@@ -12799,26 +12963,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="53" collapsed="1"/>
-    <col min="5" max="5" width="20" style="53" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="53" collapsed="1"/>
-    <col min="10" max="10" width="27.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="9.140625" style="53" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="9.140625" style="101" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" style="53" collapsed="1"/>
-    <col min="22" max="22" width="12.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="9.140625" style="53" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="53" width="29.55859375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="53" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" style="53" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="53" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="53" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="53" width="18.42578125" collapsed="true"/>
+    <col min="8" max="9" style="53" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="53" width="27.42578125" collapsed="true"/>
+    <col min="11" max="14" style="53" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="53" width="13.19921875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="53" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="53" width="11.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="53" width="19.140625" collapsed="true"/>
+    <col min="19" max="20" style="101" width="9.140625" collapsed="true"/>
+    <col min="21" max="21" style="53" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="53" width="12.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="53" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="53" width="12.4296875" collapsed="true"/>
+    <col min="26" max="16384" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -12900,7 +13065,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>979</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>359</v>
@@ -12969,7 +13134,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>979</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>359</v>
@@ -13011,7 +13176,7 @@
         <v>424</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>982</v>
+        <v>1033</v>
       </c>
       <c r="P3" s="72" t="s">
         <v>935</v>
@@ -13034,11 +13199,13 @@
       <c r="X3" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="Y3" s="107"/>
+      <c r="Y3" s="107" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>979</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>359</v>
@@ -13080,7 +13247,7 @@
         <v>424</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>983</v>
+        <v>1037</v>
       </c>
       <c r="P4" s="72" t="s">
         <v>935</v>
@@ -13103,7 +13270,9 @@
       <c r="X4" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="Y4" s="107"/>
+      <c r="Y4" s="107" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
@@ -13152,7 +13321,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -13212,57 +13381,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="28" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="60.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="28" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="28" collapsed="1"/>
-    <col min="17" max="17" width="17.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" style="28" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12" style="28" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="9.140625" style="28" collapsed="1"/>
-    <col min="27" max="27" width="18.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.42578125" style="80" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.42578125" style="80" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.85546875" style="80" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.140625" style="80" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="25.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.140625" style="28" collapsed="1"/>
-    <col min="39" max="39" width="27.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="16.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.5703125" style="28" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="18.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="32.5703125" style="28" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16" style="28" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="22.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="37" style="28" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="16.42578125" style="28" customWidth="1" collapsed="1"/>
-    <col min="53" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="28" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="28" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="28" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="28" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="28" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="28" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="28" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="28" width="60.42578125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="28" width="16.7109375" collapsed="true"/>
+    <col min="14" max="14" style="28" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="28" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" style="28" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="28" width="17.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="28" width="15.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="28" width="16.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="28" width="19.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="28" width="13.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="28" width="12.0" collapsed="true"/>
+    <col min="25" max="26" style="28" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="80" width="18.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="80" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="80" width="25.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="80" width="18.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="80" width="19.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="80" width="22.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="80" width="23.85546875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="80" width="22.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="28" width="25.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="28" width="21.85546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="28" width="23.28515625" collapsed="true"/>
+    <col min="38" max="38" style="28" width="9.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="28" width="27.42578125" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="28" width="16.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="28" width="14.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="28" width="19.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="28" width="19.140625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="28" width="18.42578125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="28" width="32.5703125" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="28" width="11.85546875" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="28" width="22.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="28" width="37.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="28" width="15.85546875" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="28" width="16.42578125" collapsed="true"/>
+    <col min="53" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -14183,47 +14352,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="31.140625" style="81" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="33.85546875" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" customWidth="1"/>
-    <col min="40" max="40" width="38" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" customWidth="1"/>
-    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="81" width="31.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="28" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="28" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -14961,24 +15130,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="33.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="2" collapsed="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31.7109375" style="81" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" style="81" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="23.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="30.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="33.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" style="2" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="81" width="31.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="81" width="16.42578125" collapsed="true"/>
+    <col min="21" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -15559,10 +15728,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15651,36 +15820,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
-    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="36.7109375" style="80" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="1" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="80" width="36.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -16466,29 +16635,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" style="53" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" style="53" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="11" max="29" width="9.140625" style="53" collapsed="1"/>
-    <col min="30" max="30" width="16.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.140625" style="53" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="24.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26" style="53" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="36" max="37" width="9.140625" style="53" collapsed="1"/>
-    <col min="38" max="38" width="13.28515625" style="53" customWidth="1" collapsed="1"/>
-    <col min="39" max="41" width="9.140625" style="53" collapsed="1"/>
-    <col min="42" max="42" width="15.7109375" style="53" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13" style="53" customWidth="1" collapsed="1"/>
-    <col min="44" max="16384" width="9.140625" style="53" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="53" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="53" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="53" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="53" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="53" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="53" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="53" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="11" max="29" style="53" width="9.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="53" width="16.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="53" width="17.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="53" width="20.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="53" width="24.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="53" width="26.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="53" width="18.7109375" collapsed="true"/>
+    <col min="36" max="37" style="53" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="53" width="13.28515625" collapsed="true"/>
+    <col min="39" max="41" style="53" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="53" width="15.7109375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="53" width="13.0" collapsed="true"/>
+    <col min="44" max="16384" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ArcTest.xlsx
+++ b/AutomationArc/ARCDataTemplete/ArcTest.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="1019">
   <si>
     <t>ProjectID</t>
   </si>
@@ -3089,6 +3089,48 @@
   </si>
   <si>
     <t>INDBuildingNone 12:07:41</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 10:53:51</t>
+  </si>
+  <si>
+    <t>9000159980</t>
+  </si>
+  <si>
+    <t>Apr 29, 2019</t>
+  </si>
+  <si>
+    <t>Lodging: Hotel/Motel/Resort, Limited Service</t>
+  </si>
+  <si>
+    <t>1000163567</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 11:01:50</t>
+  </si>
+  <si>
+    <t>9000159981</t>
+  </si>
+  <si>
+    <t>Public Assembly: Recreation</t>
+  </si>
+  <si>
+    <t>1000163569</t>
+  </si>
+  <si>
+    <t>INDBuildingNone 11:20:14</t>
+  </si>
+  <si>
+    <t>9000159982</t>
+  </si>
+  <si>
+    <t>Lodging: Other lodging</t>
+  </si>
+  <si>
+    <t>Non-Profit (that do not fit into other categories)</t>
+  </si>
+  <si>
+    <t>1000163574</t>
   </si>
 </sst>
 </file>
@@ -10081,8 +10123,8 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="47" width="26.82421875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="47" width="15.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="47" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="47" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="47" width="28.3828125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="30.71875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="47" width="25.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="47" width="23.140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="47" width="14.5703125" collapsed="true"/>
@@ -10091,7 +10133,7 @@
     <col min="11" max="12" style="47" width="9.140625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="47" width="12.7109375" collapsed="true"/>
     <col min="14" max="14" style="47" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="13.09375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="13.19921875" collapsed="true"/>
     <col min="16" max="16" customWidth="true" style="47" width="15.140625" collapsed="true"/>
     <col min="17" max="23" style="47" width="9.140625" collapsed="true"/>
     <col min="24" max="24" customWidth="true" style="47" width="16.7109375" collapsed="true"/>
@@ -10102,7 +10144,7 @@
     <col min="31" max="39" style="47" width="9.140625" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" style="47" width="12.140625" collapsed="true"/>
     <col min="41" max="41" style="47" width="9.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="47" width="12.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="47" width="12.4296875" collapsed="true"/>
     <col min="43" max="16384" style="47" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -10594,7 +10636,7 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>194</v>
@@ -10603,10 +10645,10 @@
         <v>273</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>262</v>
+        <v>1016</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>247</v>
+        <v>1017</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>198</v>
@@ -10636,7 +10678,7 @@
         <v>966</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
@@ -10677,7 +10719,7 @@
         <v>971</v>
       </c>
       <c r="AP6" s="107" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
